--- a/src/test/resources/datasheet.xlsx
+++ b/src/test/resources/datasheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praka\eclipse-workspace\SeleniumMavenProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B8487AF-B50E-4BBE-9F8C-8CE9081C0140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C42F0-E4B0-4A9A-9889-764DC59CD4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="demo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>a</t>
   </si>
@@ -43,16 +44,79 @@
   </si>
   <si>
     <t>76g</t>
+  </si>
+  <si>
+    <t>fieldname</t>
+  </si>
+  <si>
+    <t>xpathvalue</t>
+  </si>
+  <si>
+    <t>datavalue</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>showpassword</t>
+  </si>
+  <si>
+    <t>//input[@name='lastName']</t>
+  </si>
+  <si>
+    <t>//input[@type='checkbox']</t>
+  </si>
+  <si>
+    <t>//input[@name='firstName']</t>
+  </si>
+  <si>
+    <t>testA</t>
+  </si>
+  <si>
+    <t>testB</t>
+  </si>
+  <si>
+    <t>//select[@id="fruits"]</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>promptalert</t>
+  </si>
+  <si>
+    <t>//button[@id="prompt"]</t>
+  </si>
+  <si>
+    <t>yourname</t>
+  </si>
+  <si>
+    <t>vijay</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>//table[@name="table"]//td[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,8 +142,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -424,4 +497,101 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB493D34-2F60-42DC-9855-294EC94816EE}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="49.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>